--- a/biology/Médecine/Association_française_contre_l'amylose/Association_française_contre_l'amylose.xlsx
+++ b/biology/Médecine/Association_française_contre_l'amylose/Association_française_contre_l'amylose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_l%27amylose</t>
+          <t>Association_française_contre_l'amylose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Association française contre l'amylose (AFCA), créée en 1994, a pour mission d'aider les patients atteints de cette maladie rare qu'est l'amylose, de faire connaître et reconnaître cette maladie et de stimuler les recherches pour la combattre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_l%27amylose</t>
+          <t>Association_française_contre_l'amylose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1994, à la suite du décès de son épouse Paulette Ghiron-Bistagne (1933-1994) victime de l'amylose, Yves Ghiron (1934-2021) créée l'Association Paulette Ghiron Bistagne contre l'amylose dont l'action est centrée sur les neuropathies amyloïdes héréditaires. En 1997, le domaine d'action s'étend à l'ensemble des amyloses.
 En 2000, l'association change de dénomination et devient l'Association française contre l'amylose. Elle prend un nouveau logo en 2017.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_l%27amylose</t>
+          <t>Association_française_contre_l'amylose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Objectifs et actions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses principaux objectifs et les actions correspondantes sont : 
 Informer et aider les patients :
@@ -557,7 +573,7 @@
 rencontres patients-médecins
 Faire connaître et reconnaître la maladie :
 communication sous différentes formes auprès de tous les acteurs concernés
-journée mondiale contre l'amylose[1]
+journée mondiale contre l'amylose
 bourse récompensant des projets visant la formation et l'information des médecins
 participation aux journées des 4 centres de référence, et au réseau des organismes qui gèrent la santé (HAS, ANSM, ...)
 Stimuler la recherche :
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_l%27amylose</t>
+          <t>Association_française_contre_l'amylose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,13 +609,15 @@
           <t>Affiliations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AFCA est l'une des 3 associations fondatrices en 2018 d' Amyloidosis Alliance « the Voice of Patients »[2] qui regroupe l'ensemble des associations contre l'amylose du monde entier. En 2023, le président de l'AFCA, Jean-Christophe Fidalgo, assure aussi la présidence d'Amyloidosis Alliance.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AFCA est l'une des 3 associations fondatrices en 2018 d' Amyloidosis Alliance « the Voice of Patients » qui regroupe l'ensemble des associations contre l'amylose du monde entier. En 2023, le président de l'AFCA, Jean-Christophe Fidalgo, assure aussi la présidence d'Amyloidosis Alliance.
 L'AFCA a aussi fondé en 2018 le consortium ECLA (Ensemble contre les amyloses) qui regroupe les 4 réseaux de soin nationaux de lutte contre l'amylose (chacun étant spécialisé sur une des formes de la maladie) avec l'AFCA.
-Elle est aussi cofondatrice d'Alliance neuro[3] qui regroupe les association de patients atteints de neuropathies périphériques.
+Elle est aussi cofondatrice d'Alliance neuro qui regroupe les association de patients atteints de neuropathies périphériques.
 Elle est membre de l'Alliance Maladies rares qui regroupe plus de 200 associations de personnes atteintes de maladies rares.
-Enfin elle est aussi membre d'Eurordis[4] qui regroupe les associations de patients atteints de maladies rares dans 74 pays.
+Enfin elle est aussi membre d'Eurordis qui regroupe les associations de patients atteints de maladies rares dans 74 pays.
 </t>
         </is>
       </c>
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_l%27amylose</t>
+          <t>Association_française_contre_l'amylose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,15 +646,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AFCA décerne 3 prix chaque année.
-Prix Recheche
-Ce prix créé en 2010, décerne une bourse de 20.00 € aux médecins engagés dans un projet de recherche sur les amyloses systémiques.
-Prix Martha
-À la suite du legs effectué par Martha Lajugie (1924-2013) de la totalité de ses biens, le prix Martha est créé en 2015 et décerne une bourse de 15.000 € au personnel médical ou social impliqué dans un projet d'amélioration de la qualité de vie des patients, dans la continuité des préoccupations de la donatrice. 
-Prix Françoise Dubois-Charlier
-À la suite du legs effectué par la linguiste renommée Françoise Dubois-Charlier (1941-2016) de la plus grande partie de ses biens, le prix Françoise Dubois-Charlier est créé en 2019 et décerne une bourse de 15.000 € à tout acteur engagé dans un projet axé sur la formation et l'information des personnels médicaux.
 </t>
         </is>
       </c>
@@ -647,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_contre_l%27amylose</t>
+          <t>Association_française_contre_l'amylose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,10 +676,123 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix Recheche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce prix créé en 2010, décerne une bourse de 20.00 € aux médecins engagés dans un projet de recherche sur les amyloses systémiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Association_française_contre_l'amylose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_l%27amylose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix Martha</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du legs effectué par Martha Lajugie (1924-2013) de la totalité de ses biens, le prix Martha est créé en 2015 et décerne une bourse de 15.000 € au personnel médical ou social impliqué dans un projet d'amélioration de la qualité de vie des patients, dans la continuité des préoccupations de la donatrice. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Association_française_contre_l'amylose</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_l%27amylose</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prix Françoise Dubois-Charlier</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du legs effectué par la linguiste renommée Françoise Dubois-Charlier (1941-2016) de la plus grande partie de ses biens, le prix Françoise Dubois-Charlier est créé en 2019 et décerne une bourse de 15.000 € à tout acteur engagé dans un projet axé sur la formation et l'information des personnels médicaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Association_française_contre_l'amylose</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_l%27amylose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil d'administration est constitué en 2023 de 12 membres .
 Parmi ceux-ci, 5 personnes élues constituent le bureau :
@@ -710,31 +837,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Association_fran%C3%A7aise_contre_l%27amylose</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_l%27amylose</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Association_française_contre_l'amylose</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_fran%C3%A7aise_contre_l%27amylose</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Financement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le financement des actions se fait par plusieurs moyens : les cotisations, les dons, les legs, mais aussi par des subventions versées par les laboratoires pharmaceutiques.
 </t>
